--- a/Business Analysis/Feature Specifications.xlsx
+++ b/Business Analysis/Feature Specifications.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>Feature</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>A list of emotions that describe the current moment</t>
+  </si>
+  <si>
+    <t>sample-list</t>
+  </si>
+  <si>
+    <t>A list of sample liked songs (for further analysis)</t>
   </si>
   <si>
     <t>popularity</t>
@@ -441,25 +447,25 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>12</v>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -470,7 +476,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -481,7 +487,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -492,7 +498,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -503,49 +509,49 @@
         <v>22</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="C11" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="B12" s="6"/>
       <c r="C12" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>12</v>
+      <c r="C13" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>12</v>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15">
@@ -556,7 +562,7 @@
         <v>31</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -567,7 +573,7 @@
         <v>33</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
@@ -578,11 +584,19 @@
         <v>35</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="6"/>
+      <c r="A18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="19">
       <c r="B19" s="6"/>
@@ -3541,6 +3555,9 @@
     </row>
     <row r="1004">
       <c r="B1004" s="6"/>
+    </row>
+    <row r="1005">
+      <c r="B1005" s="6"/>
     </row>
   </sheetData>
   <printOptions gridLines="1" horizontalCentered="1"/>

--- a/Business Analysis/Feature Specifications.xlsx
+++ b/Business Analysis/Feature Specifications.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>Feature</t>
   </si>
@@ -31,10 +31,16 @@
     <t>User-specific</t>
   </si>
   <si>
-    <t>place</t>
-  </si>
-  <si>
-    <t>The place that the user is at the current timestamp</t>
+    <t>location</t>
+  </si>
+  <si>
+    <t>The place that the user is at the current timestamp, maybe gym, work, car, open-air site, etc</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>The particular event that takes place at that moment, may be working, commuting, training, celebration, etc</t>
   </si>
   <si>
     <t>emotions</t>
@@ -458,25 +464,25 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>14</v>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -487,7 +493,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -498,7 +504,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -509,7 +515,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -520,49 +526,49 @@
         <v>24</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="C12" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="B13" s="6"/>
       <c r="C13" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>14</v>
+      <c r="C14" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>14</v>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -573,7 +579,7 @@
         <v>33</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -584,7 +590,7 @@
         <v>35</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -595,11 +601,19 @@
         <v>37</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="6"/>
+      <c r="A19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="20">
       <c r="B20" s="6"/>
@@ -3558,6 +3572,9 @@
     </row>
     <row r="1005">
       <c r="B1005" s="6"/>
+    </row>
+    <row r="1006">
+      <c r="B1006" s="6"/>
     </row>
   </sheetData>
   <printOptions gridLines="1" horizontalCentered="1"/>
